--- a/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.0/CV32E40Pv2_not_verified_features.xlsx
+++ b/Project-Descriptions-and-Plans/CV32E40Pv2/Milestone-data/RTL_v1.8.0/CV32E40Pv2_not_verified_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\programs\programs\Project-Descriptions-and-Plans\CV32E40Pv2\Milestone-data\RTL_v1.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C59B103-B433-4121-A2AA-ACCCD6921CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83A268-E424-40B9-B91E-882922428600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="15840" xr2:uid="{1E67AEA0-4F93-4754-A208-02BB9CB25A4A}"/>
   </bookViews>
@@ -84,20 +84,20 @@
     <t xml:space="preserve">100% I/Os toggle coverage on each module is not a TRL-5 target </t>
   </si>
   <si>
-    <t xml:space="preserve">RTL freeze criteria for Dolphin Desgin but not for OHG
+    <t xml:space="preserve">For top-level I/Os, the core-v-verif testbench for E40P only allows fixed values for these signals (on-the-fly linker generation not available for E40P) </t>
+  </si>
+  <si>
+    <t>Due to lack of time for verification and coverage analysis, and also already important number of configurations, the two cluster configurations have been discarded.
+As a consequence, cv.elw instruction is not covered</t>
+  </si>
+  <si>
+    <t>RTL freeze criteria for Dolphin Design but not for OpenHW Group. FSM Transition and State are encompassed by Branch, Condition and Statements code coverage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTL freeze criteria for Dolphin Design but not for OpenHW Group.
 waived accordingly as considered not relevant
 not collected in simulation to save on performance
 </t>
-  </si>
-  <si>
-    <t>RTL freeze criteria for Dolphin Desgin but not for OHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For top-level I/Os, the core-v-verif testbench for E40P only allows fixed values for these signals (on-the-fly linker generation not available for E40P) </t>
-  </si>
-  <si>
-    <t>Due to lack of time for verification and coverage analysis, and also already important number of configurations, the two cluster configurations have been discarded.
-As a consequence, cv.elw instruction is not covered</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="4" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
@@ -990,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
